--- a/new_DB/shop_new.xlsx
+++ b/new_DB/shop_new.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\deliondata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\github\DelionServer\new_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$44</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
   <si>
     <t xml:space="preserve">category </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,10 +170,6 @@
     <t>02-2299-6755</t>
   </si>
   <si>
-    <t>치킨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블랙 &amp; 압구정</t>
   </si>
   <si>
@@ -219,10 +218,6 @@
     <t>02-2297-0201</t>
   </si>
   <si>
-    <t>중국집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피자랑</t>
   </si>
   <si>
@@ -274,14 +269,6 @@
     <t>성동구점_x000D_</t>
   </si>
   <si>
-    <t>피자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학사회관</t>
   </si>
   <si>
@@ -360,10 +347,6 @@
     <t>사근점_x000D_</t>
   </si>
   <si>
-    <t>분식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신전떡볶이</t>
   </si>
   <si>
@@ -397,10 +380,6 @@
     <t>행당점_x000D_</t>
   </si>
   <si>
-    <t>패스트푸드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도스마스</t>
   </si>
   <si>
@@ -411,10 +390,6 @@
   </si>
   <si>
     <t>02-1600-5252</t>
-  </si>
-  <si>
-    <t>족발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>귀족족발</t>
@@ -453,7 +428,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,8 +476,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{32A37345-707B-406D-B1F2-DDBC22BB9C9D}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,11 +813,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="A25" sqref="A25:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -839,9 +843,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>45</v>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -856,9 +860,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>45</v>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -873,9 +877,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>45</v>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -890,9 +894,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>45</v>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -907,9 +911,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>45</v>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -924,9 +928,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>45</v>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -941,9 +945,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>45</v>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
@@ -958,9 +962,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>45</v>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
@@ -975,602 +979,609 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>62</v>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>62</v>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>62</v>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>62</v>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>62</v>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>62</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>80</v>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>80</v>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>80</v>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>80</v>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>80</v>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>80</v>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>81</v>
+      <c r="A25">
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>81</v>
+      <c r="A26">
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>81</v>
+      <c r="A27">
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>81</v>
+      <c r="A29">
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>81</v>
+      <c r="A30">
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>81</v>
+      <c r="A31">
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>81</v>
+      <c r="A32">
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
         <v>38</v>
       </c>
       <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="F32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>108</v>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>108</v>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>108</v>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>120</v>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>120</v>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>125</v>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
       <c r="F43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A44" xr:uid="{1DDA395A-E945-4C8B-8081-FD3CCF6A60E0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="한식"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
